--- a/biology/Biochimie/Liaison_phosphodiester/Liaison_phosphodiester.xlsx
+++ b/biology/Biochimie/Liaison_phosphodiester/Liaison_phosphodiester.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liaison phosphodiester correspond au lien entre le phosphore d'un groupement phosphate avec deux autres molécules via deux liens ester. Il s'agit donc en fait de deux liaisons phosphoester. Dans l'ADN et l'ARN, la liaison phosphodiester s'effectue entre l'extrémité 3' OH sur le ribose du premier nucléotide vers l'extrémité 5' phosphate du second nucléotide, par le biais d'une ADN/ARN polymérase. A noter qu'il s'agira d'un ribose pour l'ARN (possède un Oxygène en position 2' du sucre) alors que pour l'ADN se sera un désoxyribose (désoxygénation en position 2' du sucre ce augmente la stabilité de l'ADN par rapport a l'ARN). 
  Portail de la biochimie   Portail de la chimie                    </t>
